--- a/bloomberg_analysis/bloomberg_auto_analysis.xlsx
+++ b/bloomberg_analysis/bloomberg_auto_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garcr\OneDrive\Documents\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96AD744-3F7A-4BD3-AC68-8A2A07FE7E94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6024FE4A-7DE6-41C0-8CBB-0BC557A08B52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="5" r:id="rId1"/>
@@ -18500,13 +18500,13 @@
     <t>Data was collected via the Bloomberg Terminal and imported via the Bloomberg Excel add-in</t>
   </si>
   <si>
-    <t>Forecast / Actual</t>
-  </si>
-  <si>
     <t>Average 3-Year annual growth in Sales (%)</t>
   </si>
   <si>
     <t>((Revenue - Cost of Goods Sold) / Revenue) * 100 (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Change </t>
   </si>
 </sst>
 </file>
@@ -19305,6 +19305,10 @@
     <xf numFmtId="9" fontId="27" fillId="2" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="20" xfId="30" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="3" borderId="12" xfId="25" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="45" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyAlignment="1">
@@ -19319,10 +19323,6 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -19388,58 +19388,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
         <top style="hair">
           <color indexed="64"/>
         </top>
@@ -19537,6 +19489,55 @@
         <horizontal style="hair">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -21106,7 +21107,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5082DA64-20B7-42DF-BAC7-569EA0066B35}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -21357,19 +21358,19 @@
   <autoFilter ref="A1:I24" xr:uid="{7917671D-75B2-4B0F-85E7-F27BB3DFF6A0}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C1B380C6-CDA9-478D-BCED-F4C797F7A15F}" name="Ticker" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{11F70DFB-5109-4824-AE85-96FCF82AE4CD}" name="Name" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DDBFFC95-C269-4B77-B51E-541E69F55500}" name="SALES_3YR_AVG_GROWTH" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A6CA62FE-077C-4B1A-A673-CE2823CE7D3F}" name="GROSS_MARGIN" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{FE0077D5-B6C0-4A02-979C-BE4E3716939A}" name="TOT_DEBT_TO_EBITDA" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{DEB06E72-AC86-477F-821F-03A95B258034}" name="EV_TO_EBITDA" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{5BEE2D40-063E-461E-9931-ECAD41869E75}" name="Forecast EV to EBITDA" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{11F70DFB-5109-4824-AE85-96FCF82AE4CD}" name="Name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{DDBFFC95-C269-4B77-B51E-541E69F55500}" name="SALES_3YR_AVG_GROWTH" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A6CA62FE-077C-4B1A-A673-CE2823CE7D3F}" name="GROSS_MARGIN" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{FE0077D5-B6C0-4A02-979C-BE4E3716939A}" name="TOT_DEBT_TO_EBITDA" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{DEB06E72-AC86-477F-821F-03A95B258034}" name="EV_TO_EBITDA" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5BEE2D40-063E-461E-9931-ECAD41869E75}" name="Forecast EV to EBITDA" dataDxfId="2">
       <calculatedColumnFormula>$L$18+$L$19*C2+$L$20*D2+$L$21*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F3C636B9-3B14-4379-A738-15B685669B63}" name="Forecast - Actual" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{F3C636B9-3B14-4379-A738-15B685669B63}" name="Forecast - Actual" dataDxfId="1">
       <calculatedColumnFormula xml:space="preserve"> G2 - F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{504F7BE9-6DA5-4E1F-AB84-6658AE3FBC5D}" name="Forecast / Actual" dataDxfId="0" dataCellStyle="Percent">
-      <calculatedColumnFormula xml:space="preserve"> G2/F2 - 1</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{504F7BE9-6DA5-4E1F-AB84-6658AE3FBC5D}" name="% Change " dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -21710,19 +21711,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>6149</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48" t="s">
         <v>6150</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -21737,44 +21738,44 @@
       <c r="H3" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="49"/>
       <c r="C6" t="s">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="25" t="s">
         <v>6153</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="25" t="s">
-        <v>6154</v>
-      </c>
-    </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="49"/>
       <c r="C10" t="s">
         <v>86</v>
       </c>
@@ -21785,18 +21786,18 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="49"/>
       <c r="C14" t="s">
         <v>90</v>
       </c>
@@ -21836,7 +21837,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G2987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2955" sqref="A2955"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -89831,8 +89834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD428080-476C-40D2-968E-ACCFE642AE5D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -89842,18 +89845,16 @@
     <col min="3" max="3" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -89882,7 +89883,7 @@
         <v>83</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>6152</v>
+        <v>6154</v>
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="17" t="s">
@@ -89918,7 +89919,7 @@
         <v>-5.0848999999999993</v>
       </c>
       <c r="I2" s="39">
-        <f t="shared" ref="I2:I24" si="1" xml:space="preserve"> G2/F2 - 1</f>
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
         <v>-0.42303660565723789</v>
       </c>
       <c r="J2" s="13"/>
@@ -89950,9 +89951,9 @@
         <f t="shared" si="0"/>
         <v>1.9215</v>
       </c>
-      <c r="I3" s="49">
-        <f t="shared" si="1"/>
-        <v>0.21069078947368425</v>
+      <c r="I3" s="43">
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>0.21069078947368422</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="6" t="s">
@@ -89987,9 +89988,9 @@
         <f t="shared" si="0"/>
         <v>2.5771000000000006</v>
       </c>
-      <c r="I4" s="49">
-        <f t="shared" si="1"/>
-        <v>0.38811746987951823</v>
+      <c r="I4" s="43">
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>0.38811746987951817</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" t="s">
@@ -90027,7 +90028,7 @@
         <v>2.1795</v>
       </c>
       <c r="I5" s="40">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
         <v>0.55177215189873419</v>
       </c>
       <c r="J5" s="13"/>
@@ -90065,9 +90066,9 @@
         <f t="shared" si="0"/>
         <v>-0.79509999999999792</v>
       </c>
-      <c r="I6" s="50">
-        <f t="shared" si="1"/>
-        <v>-9.696341463414615E-2</v>
+      <c r="I6" s="44">
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>-9.6963414634146095E-2</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" t="s">
@@ -90104,9 +90105,9 @@
         <f t="shared" si="0"/>
         <v>-0.52039999999999687</v>
       </c>
-      <c r="I7" s="50">
-        <f t="shared" si="1"/>
-        <v>-3.3231162196679209E-2</v>
+      <c r="I7" s="44">
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>-3.3231162196679237E-2</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" t="s">
@@ -90144,8 +90145,8 @@
         <v>3.8026999999999997</v>
       </c>
       <c r="I8" s="40">
-        <f t="shared" si="1"/>
-        <v>1.3878467153284668</v>
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>1.387846715328467</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="14" t="s">
@@ -90183,7 +90184,7 @@
         <v>-10.113300000000002</v>
       </c>
       <c r="I9" s="39">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
         <v>-0.39784815106215587</v>
       </c>
       <c r="J9" s="13"/>
@@ -90216,7 +90217,7 @@
         <v>5.3261000000000003</v>
       </c>
       <c r="I10" s="40">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
         <v>2.1051778656126485</v>
       </c>
       <c r="J10" s="13"/>
@@ -90252,8 +90253,8 @@
         <v>5.0355000000000008</v>
       </c>
       <c r="I11" s="40">
-        <f t="shared" si="1"/>
-        <v>0.52073422957600846</v>
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>0.52073422957600835</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="7"/>
@@ -90300,9 +90301,9 @@
         <f t="shared" si="0"/>
         <v>1.8658000000000019</v>
       </c>
-      <c r="I12" s="49">
-        <f t="shared" si="1"/>
-        <v>0.20639380530973472</v>
+      <c r="I12" s="43">
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>0.20639380530973475</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" t="s">
@@ -90351,9 +90352,9 @@
         <f t="shared" si="0"/>
         <v>-0.72179999999999911</v>
       </c>
-      <c r="I13" s="50">
-        <f t="shared" si="1"/>
-        <v>-0.13722433460076033</v>
+      <c r="I13" s="44">
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>-0.13722433460076031</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" t="s">
@@ -90396,9 +90397,9 @@
         <f t="shared" si="0"/>
         <v>2.3664000000000005</v>
       </c>
-      <c r="I14" s="49">
-        <f t="shared" si="1"/>
-        <v>0.34545985401459856</v>
+      <c r="I14" s="43">
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>0.34545985401459861</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="14" t="s">
@@ -90442,7 +90443,7 @@
         <v>-9.7124000000000006</v>
       </c>
       <c r="I15" s="39">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
         <v>-0.50193281653746769</v>
       </c>
       <c r="J15" s="13"/>
@@ -90474,12 +90475,12 @@
         <f t="shared" si="0"/>
         <v>1.9453999999999994</v>
       </c>
-      <c r="I16" s="49">
-        <f t="shared" si="1"/>
-        <v>0.20918279569892473</v>
+      <c r="I16" s="43">
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>0.20918279569892465</v>
       </c>
       <c r="J16" s="13"/>
-      <c r="K16" s="52" t="s">
+      <c r="K16" s="46" t="s">
         <v>68</v>
       </c>
     </row>
@@ -90511,8 +90512,8 @@
         <v>5.2088999999999999</v>
       </c>
       <c r="I17" s="40">
-        <f t="shared" si="1"/>
-        <v>0.70869387755102053</v>
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>0.70869387755102042</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="7"/>
@@ -90562,9 +90563,9 @@
         <f t="shared" si="0"/>
         <v>1.1763999999999992</v>
       </c>
-      <c r="I18" s="49">
-        <f t="shared" si="1"/>
-        <v>0.16027247956403268</v>
+      <c r="I18" s="43">
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>0.16027247956403259</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" t="s">
@@ -90617,8 +90618,8 @@
         <v>-4.2988</v>
       </c>
       <c r="I19" s="39">
-        <f t="shared" si="1"/>
-        <v>-0.28450033090668436</v>
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>-0.28450033090668431</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" t="s">
@@ -90670,9 +90671,9 @@
         <f t="shared" si="0"/>
         <v>0.36299999999999955</v>
       </c>
-      <c r="I20" s="49">
-        <f t="shared" si="1"/>
-        <v>3.2791327913278989E-2</v>
+      <c r="I20" s="43">
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>3.2791327913279093E-2</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" t="s">
@@ -90724,9 +90725,9 @@
         <f t="shared" si="0"/>
         <v>-0.72120000000000051</v>
       </c>
-      <c r="I21" s="50">
-        <f t="shared" si="1"/>
-        <v>-0.14658536585365867</v>
+      <c r="I21" s="44">
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>-0.14658536585365864</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="14" t="s">
@@ -90778,9 +90779,9 @@
         <f t="shared" si="0"/>
         <v>0.69469999999999743</v>
       </c>
-      <c r="I22" s="49">
-        <f t="shared" si="1"/>
-        <v>3.6505517603783399E-2</v>
+      <c r="I22" s="43">
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>3.6505517603783365E-2</v>
       </c>
       <c r="J22" s="13"/>
     </row>
@@ -90812,7 +90813,7 @@
         <v>-3.9994999999999994</v>
       </c>
       <c r="I23" s="39">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
         <v>-0.46077188940092162</v>
       </c>
       <c r="J23" s="13"/>
@@ -90844,9 +90845,9 @@
         <f t="shared" si="0"/>
         <v>2.6528999999999989</v>
       </c>
-      <c r="I24" s="51">
-        <f t="shared" si="1"/>
-        <v>0.36192360163710768</v>
+      <c r="I24" s="45">
+        <f xml:space="preserve"> Table1[[#This Row],[Forecast - Actual]]/Table1[[#This Row],[EV_TO_EBITDA]]</f>
+        <v>0.36192360163710763</v>
       </c>
       <c r="J24" s="13"/>
     </row>
@@ -90863,7 +90864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J24 H27:H1048576 H25 F26">
+  <conditionalFormatting sqref="J1:J24 G27:G1048576 G25">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -90875,7 +90876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F1048576 H1 F25 E26">
+  <conditionalFormatting sqref="H1 E26">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -91816,6 +91817,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005DAAC377E408544B858D94F52963D594" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0446adefbfea6e814133d5dc8706b343">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="435a239d-ada8-4df3-b75b-d319d15c998a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67efed5623de26bceebdc503a33d2052" ns3:_="">
     <xsd:import namespace="435a239d-ada8-4df3-b75b-d319d15c998a"/>
@@ -91973,22 +91989,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED875830-70DE-47D3-9D5A-6986228F5947}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40A8E334-7185-4201-8E09-14D5A4E43652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="435a239d-ada8-4df3-b75b-d319d15c998a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE217899-18A1-48DB-AE64-D452275F0183}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -92004,28 +92029,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40A8E334-7185-4201-8E09-14D5A4E43652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="435a239d-ada8-4df3-b75b-d319d15c998a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED875830-70DE-47D3-9D5A-6986228F5947}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/bloomberg_analysis/bloomberg_auto_analysis.xlsx
+++ b/bloomberg_analysis/bloomberg_auto_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garcr\OneDrive\Documents\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6024FE4A-7DE6-41C0-8CBB-0BC557A08B52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98588524-C2F2-4BF4-8EED-AF3F0EE947FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="5" r:id="rId1"/>
@@ -21700,9 +21700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12DFEEB-E2B2-4961-8642-73C4BF7B87E0}">
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21837,9 +21835,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G2987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2955" sqref="A2955"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -89834,9 +89830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD428080-476C-40D2-968E-ACCFE642AE5D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -89911,11 +89905,11 @@
         <v>12.02</v>
       </c>
       <c r="G2" s="33">
-        <f>$L$18+$L$19*C2+$L$20*D2+$L$21*E2</f>
+        <f t="shared" ref="G2:G24" si="0">$L$18+$L$19*C2+$L$20*D2+$L$21*E2</f>
         <v>6.9351000000000003</v>
       </c>
       <c r="H2" s="36">
-        <f t="shared" ref="H2:H24" si="0" xml:space="preserve"> G2 - F2</f>
+        <f t="shared" ref="H2:H24" si="1" xml:space="preserve"> G2 - F2</f>
         <v>-5.0848999999999993</v>
       </c>
       <c r="I2" s="39">
@@ -89944,11 +89938,11 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="G3" s="33">
-        <f>$L$18+$L$19*C3+$L$20*D3+$L$21*E3</f>
+        <f t="shared" si="0"/>
         <v>11.041499999999999</v>
       </c>
       <c r="H3" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9215</v>
       </c>
       <c r="I3" s="43">
@@ -89981,11 +89975,11 @@
         <v>6.64</v>
       </c>
       <c r="G4" s="33">
-        <f>$L$18+$L$19*C4+$L$20*D4+$L$21*E4</f>
+        <f t="shared" si="0"/>
         <v>9.2171000000000003</v>
       </c>
       <c r="H4" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5771000000000006</v>
       </c>
       <c r="I4" s="43">
@@ -90020,11 +90014,11 @@
         <v>3.95</v>
       </c>
       <c r="G5" s="33">
-        <f>$L$18+$L$19*C5+$L$20*D5+$L$21*E5</f>
+        <f t="shared" si="0"/>
         <v>6.1295000000000002</v>
       </c>
       <c r="H5" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1795</v>
       </c>
       <c r="I5" s="40">
@@ -90059,11 +90053,11 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G6" s="33">
-        <f>$L$18+$L$19*C6+$L$20*D6+$L$21*E6</f>
+        <f t="shared" si="0"/>
         <v>7.4049000000000014</v>
       </c>
       <c r="H6" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.79509999999999792</v>
       </c>
       <c r="I6" s="44">
@@ -90098,11 +90092,11 @@
         <v>15.66</v>
       </c>
       <c r="G7" s="33">
-        <f>$L$18+$L$19*C7+$L$20*D7+$L$21*E7</f>
+        <f t="shared" si="0"/>
         <v>15.139600000000003</v>
       </c>
       <c r="H7" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.52039999999999687</v>
       </c>
       <c r="I7" s="44">
@@ -90137,11 +90131,11 @@
         <v>2.74</v>
       </c>
       <c r="G8" s="33">
-        <f>$L$18+$L$19*C8+$L$20*D8+$L$21*E8</f>
+        <f t="shared" si="0"/>
         <v>6.5427</v>
       </c>
       <c r="H8" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8026999999999997</v>
       </c>
       <c r="I8" s="40">
@@ -90176,11 +90170,11 @@
         <v>25.42</v>
       </c>
       <c r="G9" s="33">
-        <f>$L$18+$L$19*C9+$L$20*D9+$L$21*E9</f>
+        <f t="shared" si="0"/>
         <v>15.306699999999999</v>
       </c>
       <c r="H9" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10.113300000000002</v>
       </c>
       <c r="I9" s="39">
@@ -90209,11 +90203,11 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="G10" s="33">
-        <f>$L$18+$L$19*C10+$L$20*D10+$L$21*E10</f>
+        <f t="shared" si="0"/>
         <v>7.8560999999999996</v>
       </c>
       <c r="H10" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3261000000000003</v>
       </c>
       <c r="I10" s="40">
@@ -90245,11 +90239,11 @@
         <v>9.67</v>
       </c>
       <c r="G11" s="33">
-        <f>$L$18+$L$19*C11+$L$20*D11+$L$21*E11</f>
+        <f t="shared" si="0"/>
         <v>14.705500000000001</v>
       </c>
       <c r="H11" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0355000000000008</v>
       </c>
       <c r="I11" s="40">
@@ -90294,11 +90288,11 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="G12" s="33">
-        <f>$L$18+$L$19*C12+$L$20*D12+$L$21*E12</f>
+        <f t="shared" si="0"/>
         <v>10.905800000000001</v>
       </c>
       <c r="H12" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8658000000000019</v>
       </c>
       <c r="I12" s="43">
@@ -90345,11 +90339,11 @@
         <v>5.26</v>
       </c>
       <c r="G13" s="33">
-        <f>$L$18+$L$19*C13+$L$20*D13+$L$21*E13</f>
+        <f t="shared" si="0"/>
         <v>4.5382000000000007</v>
       </c>
       <c r="H13" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.72179999999999911</v>
       </c>
       <c r="I13" s="44">
@@ -90390,11 +90384,11 @@
         <v>6.85</v>
       </c>
       <c r="G14" s="33">
-        <f>$L$18+$L$19*C14+$L$20*D14+$L$21*E14</f>
+        <f t="shared" si="0"/>
         <v>9.2164000000000001</v>
       </c>
       <c r="H14" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3664000000000005</v>
       </c>
       <c r="I14" s="43">
@@ -90435,11 +90429,11 @@
         <v>19.350000000000001</v>
       </c>
       <c r="G15" s="33">
-        <f>$L$18+$L$19*C15+$L$20*D15+$L$21*E15</f>
+        <f t="shared" si="0"/>
         <v>9.6376000000000008</v>
       </c>
       <c r="H15" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.7124000000000006</v>
       </c>
       <c r="I15" s="39">
@@ -90468,11 +90462,11 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G16" s="33">
-        <f>$L$18+$L$19*C16+$L$20*D16+$L$21*E16</f>
+        <f t="shared" si="0"/>
         <v>11.2454</v>
       </c>
       <c r="H16" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9453999999999994</v>
       </c>
       <c r="I16" s="43">
@@ -90504,11 +90498,11 @@
         <v>7.35</v>
       </c>
       <c r="G17" s="33">
-        <f>$L$18+$L$19*C17+$L$20*D17+$L$21*E17</f>
+        <f t="shared" si="0"/>
         <v>12.5589</v>
       </c>
       <c r="H17" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2088999999999999</v>
       </c>
       <c r="I17" s="40">
@@ -90556,11 +90550,11 @@
         <v>7.34</v>
       </c>
       <c r="G18" s="33">
-        <f>$L$18+$L$19*C18+$L$20*D18+$L$21*E18</f>
+        <f t="shared" si="0"/>
         <v>8.5163999999999991</v>
       </c>
       <c r="H18" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1763999999999992</v>
       </c>
       <c r="I18" s="43">
@@ -90610,11 +90604,11 @@
         <v>15.11</v>
       </c>
       <c r="G19" s="33">
-        <f>$L$18+$L$19*C19+$L$20*D19+$L$21*E19</f>
+        <f t="shared" si="0"/>
         <v>10.811199999999999</v>
       </c>
       <c r="H19" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.2988</v>
       </c>
       <c r="I19" s="39">
@@ -90664,11 +90658,11 @@
         <v>11.07</v>
       </c>
       <c r="G20" s="33">
-        <f>$L$18+$L$19*C20+$L$20*D20+$L$21*E20</f>
+        <f t="shared" si="0"/>
         <v>11.433</v>
       </c>
       <c r="H20" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36299999999999955</v>
       </c>
       <c r="I20" s="43">
@@ -90718,11 +90712,11 @@
         <v>4.92</v>
       </c>
       <c r="G21" s="33">
-        <f>$L$18+$L$19*C21+$L$20*D21+$L$21*E21</f>
+        <f t="shared" si="0"/>
         <v>4.1987999999999994</v>
       </c>
       <c r="H21" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.72120000000000051</v>
       </c>
       <c r="I21" s="44">
@@ -90772,11 +90766,11 @@
         <v>19.03</v>
       </c>
       <c r="G22" s="33">
-        <f>$L$18+$L$19*C22+$L$20*D22+$L$21*E22</f>
+        <f t="shared" si="0"/>
         <v>19.724699999999999</v>
       </c>
       <c r="H22" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69469999999999743</v>
       </c>
       <c r="I22" s="43">
@@ -90805,11 +90799,11 @@
         <v>8.68</v>
       </c>
       <c r="G23" s="33">
-        <f>$L$18+$L$19*C23+$L$20*D23+$L$21*E23</f>
+        <f t="shared" si="0"/>
         <v>4.6805000000000003</v>
       </c>
       <c r="H23" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.9994999999999994</v>
       </c>
       <c r="I23" s="39">
@@ -90838,11 +90832,11 @@
         <v>7.33</v>
       </c>
       <c r="G24" s="35">
-        <f>$L$18+$L$19*C24+$L$20*D24+$L$21*E24</f>
+        <f t="shared" si="0"/>
         <v>9.982899999999999</v>
       </c>
       <c r="H24" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6528999999999989</v>
       </c>
       <c r="I24" s="45">
@@ -90876,7 +90870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1 E26">
+  <conditionalFormatting sqref="E26 H1">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -91817,21 +91811,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005DAAC377E408544B858D94F52963D594" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0446adefbfea6e814133d5dc8706b343">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="435a239d-ada8-4df3-b75b-d319d15c998a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67efed5623de26bceebdc503a33d2052" ns3:_="">
     <xsd:import namespace="435a239d-ada8-4df3-b75b-d319d15c998a"/>
@@ -91989,10 +91968,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED875830-70DE-47D3-9D5A-6986228F5947}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE217899-18A1-48DB-AE64-D452275F0183}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="435a239d-ada8-4df3-b75b-d319d15c998a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -92014,19 +92018,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE217899-18A1-48DB-AE64-D452275F0183}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED875830-70DE-47D3-9D5A-6986228F5947}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="435a239d-ada8-4df3-b75b-d319d15c998a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>